--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.67446</v>
+        <v>0.3056103333333333</v>
       </c>
       <c r="H2">
-        <v>17.02338</v>
+        <v>0.916831</v>
       </c>
       <c r="I2">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="J2">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N2">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O2">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P2">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q2">
-        <v>212.3749426456533</v>
+        <v>6.373328081335333</v>
       </c>
       <c r="R2">
-        <v>1911.37448381088</v>
+        <v>57.35995273201799</v>
       </c>
       <c r="S2">
-        <v>0.05940356143934516</v>
+        <v>0.002601511657236079</v>
       </c>
       <c r="T2">
-        <v>0.05940356143934516</v>
+        <v>0.002601511657236079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.67446</v>
+        <v>0.3056103333333333</v>
       </c>
       <c r="H3">
-        <v>17.02338</v>
+        <v>0.916831</v>
       </c>
       <c r="I3">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="J3">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>284.883469</v>
       </c>
       <c r="O3">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P3">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q3">
-        <v>538.8532831672467</v>
+        <v>29.02111064074878</v>
       </c>
       <c r="R3">
-        <v>4849.67954850522</v>
+        <v>261.189995766739</v>
       </c>
       <c r="S3">
-        <v>0.1507230736105559</v>
+        <v>0.0118460491401578</v>
       </c>
       <c r="T3">
-        <v>0.1507230736105559</v>
+        <v>0.0118460491401578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.67446</v>
+        <v>0.3056103333333333</v>
       </c>
       <c r="H4">
-        <v>17.02338</v>
+        <v>0.916831</v>
       </c>
       <c r="I4">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="J4">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>22.553069</v>
       </c>
       <c r="N4">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O4">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P4">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q4">
-        <v>127.97648791774</v>
+        <v>6.892450934779667</v>
       </c>
       <c r="R4">
-        <v>1151.78839125966</v>
+        <v>62.032058413017</v>
       </c>
       <c r="S4">
-        <v>0.035796403606321</v>
+        <v>0.002813411019317897</v>
       </c>
       <c r="T4">
-        <v>0.035796403606321</v>
+        <v>0.002813411019317897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.794501</v>
       </c>
       <c r="I5">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088308</v>
       </c>
       <c r="J5">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N5">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O5">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P5">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q5">
-        <v>558.8331800568194</v>
+        <v>311.3878687704753</v>
       </c>
       <c r="R5">
-        <v>5029.498620511375</v>
+        <v>2802.490818934278</v>
       </c>
       <c r="S5">
-        <v>0.1563116662083739</v>
+        <v>0.1271045771048025</v>
       </c>
       <c r="T5">
-        <v>0.1563116662083739</v>
+        <v>0.1271045771048025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.794501</v>
       </c>
       <c r="I6">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088308</v>
       </c>
       <c r="J6">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>284.883469</v>
       </c>
       <c r="O6">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P6">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q6">
         <v>1417.912537444885</v>
@@ -818,10 +818,10 @@
         <v>12761.21283700397</v>
       </c>
       <c r="S6">
-        <v>0.3966054256893237</v>
+        <v>0.5787739071375723</v>
       </c>
       <c r="T6">
-        <v>0.3966054256893237</v>
+        <v>0.5787739071375722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.794501</v>
       </c>
       <c r="I7">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088308</v>
       </c>
       <c r="J7">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>22.553069</v>
       </c>
       <c r="N7">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O7">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P7">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q7">
-        <v>336.7511572911896</v>
+        <v>336.7511572911897</v>
       </c>
       <c r="R7">
         <v>3030.760415620707</v>
       </c>
       <c r="S7">
-        <v>0.09419292979066142</v>
+        <v>0.137457549666456</v>
       </c>
       <c r="T7">
-        <v>0.09419292979066142</v>
+        <v>0.137457549666456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.404507</v>
       </c>
       <c r="I8">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="J8">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N8">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O8">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P8">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q8">
-        <v>92.374825060848</v>
+        <v>51.472247765994</v>
       </c>
       <c r="R8">
-        <v>831.3734255476319</v>
+        <v>463.250229893946</v>
       </c>
       <c r="S8">
-        <v>0.02583823462218204</v>
+        <v>0.02101031845191333</v>
       </c>
       <c r="T8">
-        <v>0.02583823462218204</v>
+        <v>0.02101031845191333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.404507</v>
       </c>
       <c r="I9">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="J9">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>284.883469</v>
       </c>
       <c r="O9">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P9">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q9">
         <v>234.380182266087</v>
@@ -1004,10 +1004,10 @@
         <v>2109.421640394783</v>
       </c>
       <c r="S9">
-        <v>0.06555866423770582</v>
+        <v>0.09567101655664172</v>
       </c>
       <c r="T9">
-        <v>0.06555866423770582</v>
+        <v>0.09567101655664172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.404507</v>
       </c>
       <c r="I10">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="J10">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>22.553069</v>
       </c>
       <c r="N10">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O10">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P10">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q10">
-        <v>55.664785760661</v>
+        <v>55.66478576066101</v>
       </c>
       <c r="R10">
-        <v>500.9830718459489</v>
+        <v>500.983071845949</v>
       </c>
       <c r="S10">
-        <v>0.01557004079553116</v>
+        <v>0.02272165926590233</v>
       </c>
       <c r="T10">
-        <v>0.01557004079553115</v>
+        <v>0.02272165926590233</v>
       </c>
     </row>
   </sheetData>
